--- a/data_inputs/daily_logs.xlsx
+++ b/data_inputs/daily_logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komaralliance-my.sharepoint.com/personal/dshao_komar_com/Documents/Production Logs/September 2025/streamlit/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komaralliance-my.sharepoint.com/personal/dshao_komar_com/Documents/Production Logs/data_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{EA7A99F6-1694-487A-9FFB-F46B9189E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACDF849-53A3-4761-BD4C-DA65D627C964}"/>
+  <xr:revisionPtr revIDLastSave="1201" documentId="8_{EA7A99F6-1694-487A-9FFB-F46B9189E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B83A6A7B-D4DA-4665-9AAE-C34D585F41C7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-12675" windowWidth="16470" windowHeight="28350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily by Shifts'!$A$1:$G$789</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily by Shifts'!$A$1:$G$1211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="78">
   <si>
     <t>Production Output</t>
   </si>
@@ -274,6 +274,9 @@
   <si>
     <t>Oven Problem</t>
   </si>
+  <si>
+    <t>No Operator</t>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -380,6 +383,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3285,6 +3290,155 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Machine">
+  <location ref="A5:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Avg Daily LB Produced" fld="4" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
+    <dataField name="# Shifts" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Most Productive Day" fld="4" subtotal="max" baseField="0" baseItem="5"/>
+    <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shift/ Machine">
   <location ref="A21:E46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -3432,155 +3586,6 @@
     <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Machine">
-  <location ref="A5:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="13">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Avg Daily LB Produced" fld="4" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
-    <dataField name="# Shifts" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Most Productive Day" fld="4" subtotal="max" baseField="0" baseItem="5"/>
-    <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
-  </dataFields>
-  <formats count="5">
     <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -3607,7 +3612,7 @@
       </pivotArea>
     </format>
     <format dxfId="10">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3985,12 +3990,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4241,12 +4246,12 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -7232,17 +7237,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1010"/>
+  <dimension ref="A1:G1372"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E977" sqref="E977"/>
+      <pane ySplit="1" topLeftCell="A1333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1361" sqref="C1361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30485,7 +30490,7 @@
         <v>24</v>
       </c>
       <c r="D994" s="22" t="str">
-        <f t="shared" ref="D994:D1010" si="31">TEXT(B994, "dddd")</f>
+        <f t="shared" ref="D994:D1057" si="31">TEXT(B994, "dddd")</f>
         <v>Wednesday</v>
       </c>
       <c r="E994" s="22">
@@ -30874,9 +30879,8440 @@
         <v>40</v>
       </c>
     </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1011" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1011" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1011" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1011" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1011">
+        <v>7788.5</v>
+      </c>
+      <c r="F1011" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1011" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1012" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1012" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1012" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1012" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1012">
+        <v>5815</v>
+      </c>
+      <c r="F1012" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1012" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1013" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1013" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1013" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1013" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1013">
+        <v>6160</v>
+      </c>
+      <c r="F1013" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1013" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1014" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1014" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1014" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1014" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1014">
+        <v>104.8</v>
+      </c>
+      <c r="F1014" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1014" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1015" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1015" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1015" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1015" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1015">
+        <v>7993.4</v>
+      </c>
+      <c r="F1015" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1015" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1016" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1016" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1016" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1016" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1016">
+        <v>2607.8000000000002</v>
+      </c>
+      <c r="F1016" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1016" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1017" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1017" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1017" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1017" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1017">
+        <v>3528</v>
+      </c>
+      <c r="F1017" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1017" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1018" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1018" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1018" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1018" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1018">
+        <v>7000</v>
+      </c>
+      <c r="F1018" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1018" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1019" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1019" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1019" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1019" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1019" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1019" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1020" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1020" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1020" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1020" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1020" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1020" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1021" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1021" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1021" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1021" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1021" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1021" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1022" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1022" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1022" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1022" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1022">
+        <v>6181.7</v>
+      </c>
+      <c r="F1022" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1022" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1023" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1023" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1023" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1023" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1023" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1023" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1024" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1024" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1024" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1024" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1024">
+        <v>15526.4</v>
+      </c>
+      <c r="F1024" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1024" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1025" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1025" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1025" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1025" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1025">
+        <v>6075</v>
+      </c>
+      <c r="F1025" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1025" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1026" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1026" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1026" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1026" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1026">
+        <v>7858</v>
+      </c>
+      <c r="F1026" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1026" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1027" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1027" s="2">
+        <v>46031</v>
+      </c>
+      <c r="C1027" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1027" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1027">
+        <v>9658.7999999999993</v>
+      </c>
+      <c r="F1027" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1027" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1028" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1028" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1028" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1028" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1028">
+        <v>5740</v>
+      </c>
+      <c r="F1028" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1028" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1029" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1029" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1029" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1029" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1029" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1029" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1030" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1030" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1030" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1030" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1030">
+        <v>7598</v>
+      </c>
+      <c r="F1030" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1030" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1031" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1031" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1031" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1031" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1031" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1031" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1032" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1032" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1032" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1032" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1032">
+        <v>785.8</v>
+      </c>
+      <c r="F1032" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1032" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1033" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1033" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1033" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1033" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1033">
+        <v>499.7</v>
+      </c>
+      <c r="F1033" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1033" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1034" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1034" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1034" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1034" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1034">
+        <v>2619</v>
+      </c>
+      <c r="F1034" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1034" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1035" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1035" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1035" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1035" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1035">
+        <v>2780</v>
+      </c>
+      <c r="F1035" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1035" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1036" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1036" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1036" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1036" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1036" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1036" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1037" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1037" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1037" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1037" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1037" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1037" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1038" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1038" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1038" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1038" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1038">
+        <v>2856</v>
+      </c>
+      <c r="F1038" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1038" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1039" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1039" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1039" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1039" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1039" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1039" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1040" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1040" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1040" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1040" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1040">
+        <v>14493</v>
+      </c>
+      <c r="F1040" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1040" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1041" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1041" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1041" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1041" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1041">
+        <v>9105</v>
+      </c>
+      <c r="F1041" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1041" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1042" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1042" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1042" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1042" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1042" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1042" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1043" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1043" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1043" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1043" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1043" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1043" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1044" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1044" s="2">
+        <v>46030</v>
+      </c>
+      <c r="C1044" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1044" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1044" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1044" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1045" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1045" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1045" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1045" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1045">
+        <v>4023.9</v>
+      </c>
+      <c r="F1045" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1045" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1046" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1046" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1046" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1046" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1046">
+        <v>3155.65</v>
+      </c>
+      <c r="F1046" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1046" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1047" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1047" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1047" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1047" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1047">
+        <v>1032</v>
+      </c>
+      <c r="F1047" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1047" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1048" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1048" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1048" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1048" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1048" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1048" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1049" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1049" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1049" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1049" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1049">
+        <v>1792.2</v>
+      </c>
+      <c r="F1049" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1049" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1050" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1050" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1050" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1050" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1050">
+        <v>2126.8000000000002</v>
+      </c>
+      <c r="F1050" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1050" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1051" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1051" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1051" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1051" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1051">
+        <v>2608.6</v>
+      </c>
+      <c r="F1051" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1051" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1052" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1052" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1052" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1052" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1052">
+        <v>5560</v>
+      </c>
+      <c r="F1052" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1052" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1053" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1053" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1053" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1053" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1053" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1053" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1054" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1054" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1054" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1054" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1054" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1054" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1055" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1055" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1055" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1055" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1055">
+        <v>4337.2</v>
+      </c>
+      <c r="F1055" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1055" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1056" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1056" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1056" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1056" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1056">
+        <v>5746.6</v>
+      </c>
+      <c r="F1056" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1056" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1057" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1057" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1057" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1057" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1057">
+        <v>6901.2</v>
+      </c>
+      <c r="F1057" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1057" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1058" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1058" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1058" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1058" s="23" t="str">
+        <f t="shared" ref="D1058:D1121" si="32">TEXT(B1058, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1058">
+        <v>16258</v>
+      </c>
+      <c r="F1058" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1058" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1059" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1059" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1059" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1059" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1059">
+        <v>22</v>
+      </c>
+      <c r="F1059" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1059" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1060" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1060" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1060" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1060" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1060">
+        <v>1629</v>
+      </c>
+      <c r="F1060" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1060" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1061" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1061" s="2">
+        <v>46029</v>
+      </c>
+      <c r="C1061" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1061" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1061" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1061" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1062" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1062" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1062" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1062" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1062">
+        <v>2917.7</v>
+      </c>
+      <c r="F1062" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1062" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1063" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1063" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1063" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1063" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1063">
+        <v>3072</v>
+      </c>
+      <c r="F1063" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1063" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1064" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1064" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1064" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1064" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1064" s="23">
+        <v>2502</v>
+      </c>
+      <c r="F1064" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1064" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1065" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1065" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1065" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1065" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1065" s="23">
+        <v>114.4</v>
+      </c>
+      <c r="F1065" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1065" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1066" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1066" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1066" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1066" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1066">
+        <v>2048</v>
+      </c>
+      <c r="F1066" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1066" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1067" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1067" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1067" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1067" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1067">
+        <v>1273.8</v>
+      </c>
+      <c r="F1067" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1067" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1068" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1068" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1068" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1068" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1068" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1068" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1069" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1069" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1069" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1069" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1069">
+        <v>8340</v>
+      </c>
+      <c r="F1069" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1069" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1070" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1070" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1070" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1070" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1070">
+        <v>6116</v>
+      </c>
+      <c r="F1070" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1070" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1071" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1071" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1071" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1071" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1071" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1071" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1072" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1072" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1072" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1072" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1072">
+        <v>5658</v>
+      </c>
+      <c r="F1072" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1072" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1073" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1073" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1073" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1073" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1073">
+        <v>8653.7999999999993</v>
+      </c>
+      <c r="F1073" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1073" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1074" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1074" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1074" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1074" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1074">
+        <v>13540.4</v>
+      </c>
+      <c r="F1074" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1074" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1075" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1075" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1075" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1075" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1075">
+        <v>12580</v>
+      </c>
+      <c r="F1075" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1075" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1076" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1076" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1076" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1076" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1076">
+        <v>14641</v>
+      </c>
+      <c r="F1076" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1076" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1077" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1077" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1077" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1077" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1077">
+        <v>3675</v>
+      </c>
+      <c r="F1077" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1077" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1078" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1078" s="2">
+        <v>46028</v>
+      </c>
+      <c r="C1078" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1078" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1078" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1078" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1079" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1079" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1079" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1079" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1079">
+        <v>4022.8</v>
+      </c>
+      <c r="F1079" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1079" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1080" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1080" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1080" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1080" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1080" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1080" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1081" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1081" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1081" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1081" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1081">
+        <v>1738</v>
+      </c>
+      <c r="F1081" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1081" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1082" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1082" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1082" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1082" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1082">
+        <v>378</v>
+      </c>
+      <c r="F1082" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1082" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1083" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1083" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1083" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1083" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1083">
+        <v>532.5</v>
+      </c>
+      <c r="F1083" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1083" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1084" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1084" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1084" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1084" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1084">
+        <v>1241.2</v>
+      </c>
+      <c r="F1084" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1084" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1085" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1085" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1085" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1085" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1085">
+        <v>4960.8</v>
+      </c>
+      <c r="F1085" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1085" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1086" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1086" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1086" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1086" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1086">
+        <v>3420</v>
+      </c>
+      <c r="F1086" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1086" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1087" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1087" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1087" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1087" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1087">
+        <v>6672</v>
+      </c>
+      <c r="F1087" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1087" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1088" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1088" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1088" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1088" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1088">
+        <v>2904</v>
+      </c>
+      <c r="F1088" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1088" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1089" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1089" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1089" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1089" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1089" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1089" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1090" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1090" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1090" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1090" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1090">
+        <v>7907.7</v>
+      </c>
+      <c r="F1090" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1090" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1091" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1091" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1091" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1091" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1091">
+        <v>14669</v>
+      </c>
+      <c r="F1091" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1091" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1092" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1092" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1092" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1092" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1092">
+        <v>19193.7</v>
+      </c>
+      <c r="F1092" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1092" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1093" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1093" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1093" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1093" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1093">
+        <v>4628</v>
+      </c>
+      <c r="F1093" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1093" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1094" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1094" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1094" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1094" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1094">
+        <v>1552</v>
+      </c>
+      <c r="F1094" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1094" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1095" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1095" s="2">
+        <v>46027</v>
+      </c>
+      <c r="C1095" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1095" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1095" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1095" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1096" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1096" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1096" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1096" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1096">
+        <v>1573.2</v>
+      </c>
+      <c r="F1096" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1096" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1097" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1097" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1097" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1097" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1097" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1097" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1098" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1098" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1098" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1098" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1098" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1098" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1099" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1099" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1099" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1099" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1099">
+        <v>732</v>
+      </c>
+      <c r="F1099" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1099" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1100" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1100" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1100" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1100" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1100" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1100" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1101" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1101" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1101" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1101" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1101" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1101" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1102" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1102" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1102" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1102" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1102">
+        <v>5021.5</v>
+      </c>
+      <c r="F1102" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1102" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1103" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1103" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1103" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1103" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1103">
+        <v>2872.6</v>
+      </c>
+      <c r="F1103" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1103" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1104" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1104" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1104" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1104" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1104" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1104" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1105" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1105" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1105" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1105" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1105">
+        <v>4259.1000000000004</v>
+      </c>
+      <c r="F1105" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1105" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1106" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1106" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1106" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1106">
+        <v>3487.4</v>
+      </c>
+      <c r="F1106" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1106" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1107" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1107" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1107" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1107">
+        <v>7427</v>
+      </c>
+      <c r="F1107" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1107" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1108" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1108" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1108" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1108">
+        <v>8187.6</v>
+      </c>
+      <c r="F1108" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1108" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1109" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1109" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1109" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1109" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1109">
+        <v>11354</v>
+      </c>
+      <c r="F1109" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1109" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1110" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1110" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1110" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1110">
+        <v>9076</v>
+      </c>
+      <c r="F1110" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1110" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1111" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1111" s="2">
+        <v>46024</v>
+      </c>
+      <c r="C1111" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1111" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1111">
+        <v>2736</v>
+      </c>
+      <c r="F1111" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1111" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1112" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1112" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1112" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E1112">
+        <v>6274</v>
+      </c>
+      <c r="F1112" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1112" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1113" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1113" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1113" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1113" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1113" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1114" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1114" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1114" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E1114">
+        <v>5940</v>
+      </c>
+      <c r="F1114" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1114" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1115" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1115" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1115" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1115" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1115" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1116" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1116" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1116" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1116" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1116" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1117" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1117" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1117" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1117" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1117" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1118" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1118" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1118" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1118" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1118" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1119" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1119" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1119" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1119" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1119" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1120" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1120" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1120" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1120" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1120" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1121" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1121" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1121" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1121" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1121" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1122" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1122" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1122" s="23" t="str">
+        <f t="shared" ref="D1122:D1185" si="33">TEXT(B1122, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E1122">
+        <v>7285.2</v>
+      </c>
+      <c r="F1122" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1122" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1123" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1123" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1123" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1123" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1123" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1124" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1124" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1124" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1124" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1124" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1125" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1125" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1125" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1125" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1125" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1126" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1126" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1126" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1126" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1126" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1127" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>46032</v>
+      </c>
+      <c r="C1127" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1127" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F1127" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1127" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1128" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1128" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1128" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1128">
+        <v>3213.9</v>
+      </c>
+      <c r="F1128" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1128" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1129" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1129" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1129" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1129">
+        <v>6851</v>
+      </c>
+      <c r="F1129" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1129" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1130" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1130" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1130" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1130" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1130" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1131" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1131" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1131" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1131" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1131" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1132" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1132" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1132" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1132">
+        <v>1431.6</v>
+      </c>
+      <c r="F1132" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1132" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1133" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1133" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1133" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1133">
+        <v>1483.3</v>
+      </c>
+      <c r="F1133" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1133" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1134" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1134" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1134" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1134">
+        <v>2088</v>
+      </c>
+      <c r="F1134" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1134" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1135" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1135" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1135" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1135">
+        <v>5600</v>
+      </c>
+      <c r="F1135" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1135" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1136" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1136" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1136" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1136" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1136" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1136" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1137" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1137" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1137" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1137" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1137" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1137" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1138" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1138" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1138" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1138" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1138">
+        <v>4099.5</v>
+      </c>
+      <c r="F1138" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1138" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1139" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1139" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1139" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1139" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1139" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1140" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1140" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1140" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1140" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1140">
+        <v>525</v>
+      </c>
+      <c r="F1140" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1140" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1141" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1141" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1141" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1141" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1141">
+        <v>8162.4</v>
+      </c>
+      <c r="F1141" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1141" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1142" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1142" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1142" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1142" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1142">
+        <v>1204</v>
+      </c>
+      <c r="F1142" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1142" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1143" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1143" s="2">
+        <v>46034</v>
+      </c>
+      <c r="C1143" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1143" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1143">
+        <v>2502</v>
+      </c>
+      <c r="F1143" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1143" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1144" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1144" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1144" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1144" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1144">
+        <v>2784</v>
+      </c>
+      <c r="F1144" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1144" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1145" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1145" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1145" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1145" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1145">
+        <v>4472</v>
+      </c>
+      <c r="F1145" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1145" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1146" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1146" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1146" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1146" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1146">
+        <v>14687</v>
+      </c>
+      <c r="F1146" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1146" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1147" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1147" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1147" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1147" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1147">
+        <v>378.8</v>
+      </c>
+      <c r="F1147" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1147" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1148" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1148" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1148" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1148" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1148">
+        <v>926.4</v>
+      </c>
+      <c r="F1148" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1148" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1149" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1149" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1149" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1149" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1149">
+        <v>2550.6999999999998</v>
+      </c>
+      <c r="F1149" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1149" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1150" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1150" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1150" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1150" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1150">
+        <v>4434</v>
+      </c>
+      <c r="F1150" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1150" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1151" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1151" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1151" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1151" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1151">
+        <v>9735</v>
+      </c>
+      <c r="F1151" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1151" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1152" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1152" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1152" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1152" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1152" s="23">
+        <v>3540</v>
+      </c>
+      <c r="F1152" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1152" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1153" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1153" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1153" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1153" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1153" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1153" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1154" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1154" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1154" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1154" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1154">
+        <v>5992</v>
+      </c>
+      <c r="F1154" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1154" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1155" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1155" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1155" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1155" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1155">
+        <v>7149.9</v>
+      </c>
+      <c r="F1155" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1155" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1156" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1156" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1156" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1156" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1156">
+        <v>6172.8</v>
+      </c>
+      <c r="F1156" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1156" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1157" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1157" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1157" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1157" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1157">
+        <v>17500.400000000001</v>
+      </c>
+      <c r="F1157" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1157" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1158" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1158" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1158" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1158" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1158">
+        <v>387</v>
+      </c>
+      <c r="F1158" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1158" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1159" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1159" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1159" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1159" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1159">
+        <v>1295.3399999999999</v>
+      </c>
+      <c r="F1159" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1159" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1160" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1160" s="2">
+        <v>46035</v>
+      </c>
+      <c r="C1160" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1160" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1160">
+        <v>507</v>
+      </c>
+      <c r="F1160" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1160" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1161" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1161" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1161" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1161" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1161">
+        <v>2324</v>
+      </c>
+      <c r="F1161" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1161" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1162" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1162" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1162" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1162" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1162" s="23">
+        <v>7061</v>
+      </c>
+      <c r="F1162" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1162" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1163" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1163" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1163" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1163" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1163" s="23">
+        <v>4405</v>
+      </c>
+      <c r="F1163" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1163" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1164" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1164" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1164" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1164" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1164" s="23">
+        <v>159.6</v>
+      </c>
+      <c r="F1164" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1164" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1165" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1165" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1165" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1165" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1165" s="23">
+        <v>2160</v>
+      </c>
+      <c r="F1165" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1165" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1166" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1166" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1166" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1166" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1166" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1166" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1167" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1167" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1167" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1167" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1167" s="23">
+        <v>4008</v>
+      </c>
+      <c r="F1167" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1167" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1168" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1168" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1168" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1168" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1168">
+        <v>13275</v>
+      </c>
+      <c r="F1168" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1168" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1169" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1169" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1169" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1169" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1169" s="23">
+        <v>3540</v>
+      </c>
+      <c r="F1169" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1169" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1170" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1170" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1170" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1170" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1170" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1170" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1171" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1171" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1171" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1171" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1171">
+        <v>7543.3</v>
+      </c>
+      <c r="F1171" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1171" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1172" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1172" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1172" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1172" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1172" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1172" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1173" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1173" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1173" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1173" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1173">
+        <v>12290.7</v>
+      </c>
+      <c r="F1173" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1173" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1174" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1174" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1174" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1174" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1174">
+        <v>10382</v>
+      </c>
+      <c r="F1174" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1174" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1175" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1175" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1175" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1175" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1175">
+        <v>7328</v>
+      </c>
+      <c r="F1175" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1175" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1176" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1176" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1176" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1176" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1176">
+        <v>1073</v>
+      </c>
+      <c r="F1176" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1176" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1177" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1177" s="2">
+        <v>46036</v>
+      </c>
+      <c r="C1177" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1177" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1177">
+        <v>1995</v>
+      </c>
+      <c r="F1177" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1177" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1178" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1178" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1178" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1178" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1178">
+        <v>3771.2</v>
+      </c>
+      <c r="F1178" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1178" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1179" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1179" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1179" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1179" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1179">
+        <v>5498</v>
+      </c>
+      <c r="F1179" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1179" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1180" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1180" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1180" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1180" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1180">
+        <v>3263</v>
+      </c>
+      <c r="F1180" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1180" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1181" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1181" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1181" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1181" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1181" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1181" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1182" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1182" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1182" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1182" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1182">
+        <v>3342.3</v>
+      </c>
+      <c r="F1182" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1182" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1183" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1183" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1183" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1183" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1183">
+        <v>7855.9</v>
+      </c>
+      <c r="F1183" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1183" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1184" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1184" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1184" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1184" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1184">
+        <v>3705</v>
+      </c>
+      <c r="F1184" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1184" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1185" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1185" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1185" s="23" t="str">
+        <f t="shared" si="33"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1185">
+        <v>11505</v>
+      </c>
+      <c r="F1185" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1185" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1186" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1186" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1186" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1186" s="23" t="str">
+        <f t="shared" ref="D1186:D1227" si="34">TEXT(B1186, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="F1186" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1186" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1187" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1187" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1187" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1187" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1187" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1188" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1188" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1188" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1188" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1188">
+        <v>3063</v>
+      </c>
+      <c r="F1188" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1188" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1189" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1189" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1189" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1189" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1189">
+        <v>7338.6</v>
+      </c>
+      <c r="F1189" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1189" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1190" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1190" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1190" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1190" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1190" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1190" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1191" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1191" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1191" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1191" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1191">
+        <v>6506.4</v>
+      </c>
+      <c r="F1191" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1191" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1192" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1192" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1192" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1192">
+        <v>7420</v>
+      </c>
+      <c r="F1192" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1192" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1193" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1193" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1193" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1193" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1193">
+        <v>2660</v>
+      </c>
+      <c r="F1193" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1193" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1194" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>46037</v>
+      </c>
+      <c r="C1194" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1194" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1194">
+        <v>7235</v>
+      </c>
+      <c r="F1194" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1194" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1195" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1195" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1195" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1195" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1195">
+        <v>6368.6</v>
+      </c>
+      <c r="F1195" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1195" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1196" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1196" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1196" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1196" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1196">
+        <v>7789</v>
+      </c>
+      <c r="F1196" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1196" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1197" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1197" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1197" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1197" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1197">
+        <v>5113</v>
+      </c>
+      <c r="F1197" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1197" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1198" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1198" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1198" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1198">
+        <v>175.74</v>
+      </c>
+      <c r="F1198" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1198" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1199" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1199" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1199" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1199" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1199">
+        <v>3053.7</v>
+      </c>
+      <c r="F1199" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1199" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1200" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1200" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1200" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1200">
+        <v>3178.2</v>
+      </c>
+      <c r="F1200" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1200" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1201" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1201" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1201" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1201" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1201">
+        <v>4340</v>
+      </c>
+      <c r="F1201" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1201" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1202" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1202" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1202" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1202" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1202">
+        <v>2298</v>
+      </c>
+      <c r="F1202" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1202" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1203" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1203" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1203" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1203" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1203" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1203" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1204" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1204" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1204" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1204" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1204" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1204" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1205" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1205" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1205" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1205" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1205">
+        <v>5141.2</v>
+      </c>
+      <c r="F1205" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1205" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1206" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1206" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1206" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1206" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1206">
+        <v>11012</v>
+      </c>
+      <c r="F1206" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1206" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1207" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1207" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1207" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1207" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1207">
+        <v>8746.2000000000007</v>
+      </c>
+      <c r="F1207" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1207" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1208" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1208" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1208" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1208" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1208">
+        <v>7740.6</v>
+      </c>
+      <c r="F1208" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1208" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1209" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1209" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1209" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1209" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1209">
+        <v>4949</v>
+      </c>
+      <c r="F1209" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1209" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1210" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1210" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1210" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1210" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1210">
+        <v>1615</v>
+      </c>
+      <c r="F1210" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1210" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1211" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1211" s="2">
+        <v>46038</v>
+      </c>
+      <c r="C1211" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1211" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1211">
+        <v>2280</v>
+      </c>
+      <c r="F1211" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1211" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1212" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1212" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1212" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1212" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1212">
+        <v>4634</v>
+      </c>
+      <c r="F1212" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1212" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1213" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1213" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1213" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1213" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1213">
+        <v>6555</v>
+      </c>
+      <c r="F1213" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1213" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1214" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1214" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1214" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1214">
+        <v>4578</v>
+      </c>
+      <c r="F1214" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1214" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1215" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1215" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1215" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1215" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1215" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1216" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1216" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1216" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1216">
+        <v>2024.1</v>
+      </c>
+      <c r="F1216" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1216" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1217" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1217" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1217" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1217">
+        <v>4352.5</v>
+      </c>
+      <c r="F1217" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1217" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1218" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1218" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1218" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1218">
+        <v>3938</v>
+      </c>
+      <c r="F1218" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1218" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1219" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1219" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1219" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1219">
+        <v>1350</v>
+      </c>
+      <c r="F1219" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1219" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1220" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1220" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1220" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1220" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1220" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1221" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1221" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1221" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1221">
+        <v>2088</v>
+      </c>
+      <c r="F1221" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1221" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1222" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1222" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1222" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1222">
+        <v>7295</v>
+      </c>
+      <c r="F1222" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1222" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1223" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1223" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1223" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1223">
+        <v>4443.8</v>
+      </c>
+      <c r="F1223" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1223" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1224" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1224" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1224" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1224" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1224" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1225" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1225" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1225" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1225">
+        <v>11334</v>
+      </c>
+      <c r="F1225" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1225" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1226" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>46041</v>
+      </c>
+      <c r="C1226" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1226" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1226">
+        <v>2803</v>
+      </c>
+      <c r="F1226" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1226" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1227" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>46039</v>
+      </c>
+      <c r="C1227" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1227" s="24" t="str">
+        <f t="shared" si="34"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E1227">
+        <v>1636</v>
+      </c>
+      <c r="F1227" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1227" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1228" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1228" s="2">
+        <v>46039</v>
+      </c>
+      <c r="C1228" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1228" s="24" t="str">
+        <f t="shared" ref="D1228:D1291" si="35">TEXT(B1228, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="E1228" s="24">
+        <v>3656</v>
+      </c>
+      <c r="F1228" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1228" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1229" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1229" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1229" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1229" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1229">
+        <v>5194.6000000000004</v>
+      </c>
+      <c r="F1229" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1229" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1230" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1230" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1230" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1230" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1230">
+        <v>7346</v>
+      </c>
+      <c r="F1230" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1230" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1231" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1231" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1231" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1231" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1231">
+        <v>2696</v>
+      </c>
+      <c r="F1231" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1231" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1232" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1232" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1232" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1232" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1232" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1232" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1233" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1233" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1233" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1233" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1233">
+        <v>1920.2</v>
+      </c>
+      <c r="F1233" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1233" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1234" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1234" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1234" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1234" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1234">
+        <v>3378.6</v>
+      </c>
+      <c r="F1234" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1234" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1235" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1235" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1235" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1235" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1235">
+        <v>3352</v>
+      </c>
+      <c r="F1235" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1235" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1236" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1236" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1236" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1236" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1236">
+        <v>7608</v>
+      </c>
+      <c r="F1236" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1236" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1237" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1237" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1237" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1237" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1237">
+        <v>1724</v>
+      </c>
+      <c r="F1237" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1237" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1238" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1238" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1238" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1238" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1238" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1238" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1239" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1239" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1239" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1239" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1239">
+        <v>8182.2</v>
+      </c>
+      <c r="F1239" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1239" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1240" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1240" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1240" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1240" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1240" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1240" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1241" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1241" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1241" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1241" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1241" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1241" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1242" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1242" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1242" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1242" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1242">
+        <v>6277</v>
+      </c>
+      <c r="F1242" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1242" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1243" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1243" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1243" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1243" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1243">
+        <v>6745</v>
+      </c>
+      <c r="F1243" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1243" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1244" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1244" s="2">
+        <v>46042</v>
+      </c>
+      <c r="C1244" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1244" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1244">
+        <v>7030</v>
+      </c>
+      <c r="F1244" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1244" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1245" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1245" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1245" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1245" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1245">
+        <v>5194.8999999999996</v>
+      </c>
+      <c r="F1245" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1245" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1246" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1246" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1246" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1246">
+        <v>4559</v>
+      </c>
+      <c r="F1246" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1246" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1247" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1247" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1247" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1247" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1247">
+        <v>3581</v>
+      </c>
+      <c r="F1247" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1247" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1248" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1248" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1248" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1248" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1248" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1249" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1249" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1249" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1249" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1249">
+        <v>2750.7</v>
+      </c>
+      <c r="F1249" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1249" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1250" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1250" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1250" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1250" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1250">
+        <v>2179.4</v>
+      </c>
+      <c r="F1250" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1250" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1251" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1251" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1251" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1251" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1251">
+        <v>3742</v>
+      </c>
+      <c r="F1251" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1251" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1252" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1252" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1252" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1252" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1252">
+        <v>9720</v>
+      </c>
+      <c r="F1252" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1252" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1253" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1253" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1253" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1253" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1253" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1253" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1254" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1254" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1254" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1254">
+        <v>5149.3999999999996</v>
+      </c>
+      <c r="F1254" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1254" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1255" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1255" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1255" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1255" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1255">
+        <v>7291</v>
+      </c>
+      <c r="F1255" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1255" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1256" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1256" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1256" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1256" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1256" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1257" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1257" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1257" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1257" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1257">
+        <v>14270.4</v>
+      </c>
+      <c r="F1257" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1257" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1258" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1258" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1258" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1258" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1258">
+        <v>5980</v>
+      </c>
+      <c r="F1258" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1258" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1259" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1259" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1259" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1259" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1259">
+        <v>3090</v>
+      </c>
+      <c r="F1259" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1259" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1260" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1260" s="2">
+        <v>46043</v>
+      </c>
+      <c r="C1260" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1260" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1260">
+        <v>969</v>
+      </c>
+      <c r="F1260" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1260" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1261" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1261" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1261" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1261" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1261">
+        <v>1581.8</v>
+      </c>
+      <c r="F1261" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1261" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1262" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1262" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1262" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1262" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1262">
+        <v>2295</v>
+      </c>
+      <c r="F1262" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1262" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1263" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1263" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1263" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1263" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1263">
+        <v>1817</v>
+      </c>
+      <c r="F1263" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1263" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1264" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1264" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1264" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1264" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1264" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1264" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1265" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1265" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1265" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1265" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1265">
+        <v>1829</v>
+      </c>
+      <c r="F1265" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1265" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1266" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1266" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1266" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1266" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1266">
+        <v>1654.5</v>
+      </c>
+      <c r="F1266" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1266" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1267" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1267" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1267" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1267" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1267">
+        <v>2139</v>
+      </c>
+      <c r="F1267" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1267" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1268" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1268" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1268" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1268" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1268">
+        <v>6803</v>
+      </c>
+      <c r="F1268" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1268" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1269" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1269" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1269" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1269" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1269" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1269" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1270" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1270" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1270" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1270" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1270" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1270" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1271" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1271" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1271" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1271" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1271">
+        <v>10081.799999999999</v>
+      </c>
+      <c r="F1271" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1271" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1272" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1272" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1272" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1272" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1272">
+        <v>7820.1</v>
+      </c>
+      <c r="F1272" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1272" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1273" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1273" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1273" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1273" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1273">
+        <v>13090.2</v>
+      </c>
+      <c r="F1273" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1273" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1274" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1274" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1274" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1274" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1274">
+        <v>3247</v>
+      </c>
+      <c r="F1274" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1274" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1275" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1275" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1275" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1275" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1275">
+        <v>1858</v>
+      </c>
+      <c r="F1275" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1275" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1276" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1276" s="2">
+        <v>46044</v>
+      </c>
+      <c r="C1276" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1276" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1276">
+        <v>1435</v>
+      </c>
+      <c r="F1276" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1276" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1277" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1277" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1277" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1277" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1277">
+        <v>6754</v>
+      </c>
+      <c r="F1277" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1277" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1278" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1278" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1278" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1278" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1278">
+        <v>6764</v>
+      </c>
+      <c r="F1278" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1278" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1279" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1279" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1279" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1279" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1279">
+        <v>4170</v>
+      </c>
+      <c r="F1279" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1279" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1280" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1280" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1280" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1280" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1280">
+        <v>71</v>
+      </c>
+      <c r="F1280" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1280" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1281" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1281" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1281" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1281" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1281">
+        <v>2432.8000000000002</v>
+      </c>
+      <c r="F1281" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1281" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1282" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1282" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1282" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1282" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1282">
+        <v>2212.3000000000002</v>
+      </c>
+      <c r="F1282" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1282" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1283" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1283" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1283" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1283" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1283">
+        <v>5217</v>
+      </c>
+      <c r="F1283" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1283" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1284" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1284" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1284" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1284" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1284">
+        <v>2804</v>
+      </c>
+      <c r="F1284" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1284" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1285" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1285" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1285" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1285" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1285" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1285" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1286" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1286" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1286" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1286" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1286">
+        <v>3306.6</v>
+      </c>
+      <c r="F1286" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1286" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1287" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1287" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1287" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1287" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1287">
+        <v>6317.6</v>
+      </c>
+      <c r="F1287" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1287" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1288" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1288" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1288" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1288" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1288">
+        <v>12770.4</v>
+      </c>
+      <c r="F1288" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1288" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1289" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1289" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1289" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1289" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1289">
+        <v>14262.4</v>
+      </c>
+      <c r="F1289" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1289" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1290" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1290" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1290" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1290" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1290">
+        <v>11267</v>
+      </c>
+      <c r="F1290" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1290" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1291" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1291" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1291" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1291" s="24" t="str">
+        <f t="shared" si="35"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1291">
+        <v>2787</v>
+      </c>
+      <c r="F1291" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1291" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1292" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1292" s="2">
+        <v>46045</v>
+      </c>
+      <c r="C1292" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1292" s="24" t="str">
+        <f t="shared" ref="D1292:D1355" si="36">TEXT(B1292, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E1292">
+        <v>1130</v>
+      </c>
+      <c r="F1292" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1292" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1293" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1293" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1293" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1293" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1293">
+        <v>7110</v>
+      </c>
+      <c r="F1293" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1293" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1294" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1294" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1294" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1294" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1294">
+        <v>3130</v>
+      </c>
+      <c r="F1294" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1294" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1295" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1295" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1295" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1295" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1295">
+        <v>4158</v>
+      </c>
+      <c r="F1295" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1295" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1296" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1296" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1296" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1296" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1296">
+        <v>58.4</v>
+      </c>
+      <c r="F1296" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1296" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1297" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1297" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1297" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1297" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1297">
+        <v>1552.8</v>
+      </c>
+      <c r="F1297" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1297" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1298" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1298" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1298" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1298" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1298">
+        <v>3114.4</v>
+      </c>
+      <c r="F1298" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1298" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1299" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1299" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1299" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1299" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1299">
+        <v>5949.5</v>
+      </c>
+      <c r="F1299" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1299" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1300" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1300" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1300" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1300" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1300">
+        <v>1224</v>
+      </c>
+      <c r="F1300" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1300" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1301" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1301" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1301" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1301" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1301">
+        <v>2298</v>
+      </c>
+      <c r="F1301" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1301" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1302" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1302" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1302" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1302" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1302">
+        <v>3765</v>
+      </c>
+      <c r="F1302" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1302" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1303" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1303" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1303" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1303" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1303">
+        <v>2544</v>
+      </c>
+      <c r="F1303" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1303" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1304" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1304" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1304" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1304" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="F1304" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1304" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1305" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1305" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1305" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1305" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1305">
+        <v>12425</v>
+      </c>
+      <c r="F1305" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1305" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1306" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1306" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1306" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1306" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1306">
+        <v>6738</v>
+      </c>
+      <c r="F1306" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1306" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1307" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1307" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1307" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1307" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1307">
+        <v>1980</v>
+      </c>
+      <c r="F1307" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1307" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1308" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1308" s="2">
+        <v>46048</v>
+      </c>
+      <c r="C1308" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1308" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Monday</v>
+      </c>
+      <c r="E1308">
+        <v>1237</v>
+      </c>
+      <c r="F1308" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1308" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1309" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1309" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1309" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1309" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1310" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1310" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1310" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1310" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1310">
+        <v>3786</v>
+      </c>
+      <c r="F1310" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1310" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1311" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1311" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1311" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1311" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1311">
+        <v>4349</v>
+      </c>
+      <c r="F1311" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1311" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1312" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1312" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1312" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1312" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1312">
+        <v>59.2</v>
+      </c>
+      <c r="F1312" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1312" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1313" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1313" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1313" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1313" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1313">
+        <v>2989.4</v>
+      </c>
+      <c r="F1313" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1313" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1314" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1314" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1314" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1314" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1314">
+        <v>8017</v>
+      </c>
+      <c r="F1314" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1314" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1315" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1315" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1315" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1315" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1315">
+        <v>5080</v>
+      </c>
+      <c r="F1315" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1315" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1316" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1316" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1316" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1316" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1316">
+        <v>2695</v>
+      </c>
+      <c r="F1316" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1316" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1317" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1317" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1317" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1317" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1317">
+        <v>1620</v>
+      </c>
+      <c r="F1317" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1317" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1318" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1318" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1318" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1318" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1318">
+        <v>815.6</v>
+      </c>
+      <c r="F1318" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1318" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1319" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1319" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1319" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1319" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1319">
+        <v>6945.6</v>
+      </c>
+      <c r="F1319" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1319" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1320" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1320" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1320" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1320" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1320">
+        <v>9006.9</v>
+      </c>
+      <c r="F1320" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1320" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1321" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1321" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1321" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1321" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1321">
+        <v>16548.8</v>
+      </c>
+      <c r="F1321" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1321" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1322" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1322" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1322" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1322" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1322">
+        <v>3685</v>
+      </c>
+      <c r="F1322" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1322" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1323" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1323" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1323" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1323" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1323">
+        <v>1509</v>
+      </c>
+      <c r="F1323" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1323" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1324" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1324" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C1324" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1324" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E1324">
+        <v>544</v>
+      </c>
+      <c r="F1324" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1324" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1325" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1325" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1325" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1325" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1325" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1325" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1326" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1326" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1326" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1326" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1326">
+        <v>7206</v>
+      </c>
+      <c r="F1326" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1326" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1327" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1327" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1327" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1327" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1327">
+        <v>4459</v>
+      </c>
+      <c r="F1327" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1327" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1328" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1328" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1328" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1328" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1328">
+        <v>66</v>
+      </c>
+      <c r="F1328" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1328" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1329" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1329" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1329" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1329" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1329" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1329" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1330" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1330" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1330" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1330" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1330">
+        <v>2287.8000000000002</v>
+      </c>
+      <c r="F1330" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1330" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1331" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1331" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1331" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1331" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1331">
+        <v>6578</v>
+      </c>
+      <c r="F1331" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1331" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1332" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1332" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1332" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1332" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1332">
+        <v>8796</v>
+      </c>
+      <c r="F1332" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1332" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1333" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1333" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1333" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1333" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F1333" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1333" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1334" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1334" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1334" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1334" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1334">
+        <v>3043.8</v>
+      </c>
+      <c r="F1334" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1334" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1335" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1335" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1335" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1335" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1335">
+        <v>12505.6</v>
+      </c>
+      <c r="F1335" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1335" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1336" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1336" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1336" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1336" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1336">
+        <v>9300</v>
+      </c>
+      <c r="F1336" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1336" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1337" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1337" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1337" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1337" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1337">
+        <v>15490.6</v>
+      </c>
+      <c r="F1337" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1337" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1338" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1338" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1338" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1338" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1338">
+        <v>7020</v>
+      </c>
+      <c r="F1338" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1338" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1339" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1339" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1339" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1339" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1339">
+        <v>4696</v>
+      </c>
+      <c r="F1339" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1339" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1340" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1340" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C1340" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1340" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E1340">
+        <v>1582</v>
+      </c>
+      <c r="F1340" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1340" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1341" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1341" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1341" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1341" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1341">
+        <v>908</v>
+      </c>
+      <c r="F1341" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1341" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1342" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1342" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1342" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1342" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1342">
+        <v>2118</v>
+      </c>
+      <c r="F1342" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1342" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1343" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1343" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1343" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1343" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1343">
+        <v>1866</v>
+      </c>
+      <c r="F1343" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1343" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1344" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1344" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1344" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1344" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1344" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1344" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1345" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1345" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1345" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1345" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1345" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1345" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1346" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1346" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1346" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1346" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1346">
+        <v>2856.9</v>
+      </c>
+      <c r="F1346" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1346" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1347" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1347" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1347" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1347" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1347">
+        <v>6679</v>
+      </c>
+      <c r="F1347" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1347" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1348" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1348" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1348" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1348" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1348">
+        <v>13194</v>
+      </c>
+      <c r="F1348" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1348" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1349" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1349" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1349" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1349" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1349" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1349" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1350" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1350" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1350" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1350" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1350" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1350" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1351" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1351" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1351" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1351" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1351" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1351" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1352" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1352" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1352" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1352" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1352">
+        <v>15667.6</v>
+      </c>
+      <c r="F1352" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1352" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1353" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1353" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1353" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1353" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E1353">
+        <v>17642.7</v>
+      </c>
+      <c r="F1353" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1353" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1354" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1354" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1354" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1354" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1354" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1354" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1355" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1355" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1355" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1355" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F1355" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1355" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1356" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1356" s="2">
+        <v>46051</v>
+      </c>
+      <c r="C1356" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1356" s="24" t="str">
+        <f t="shared" ref="D1356:D1371" si="37">TEXT(B1356, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="F1356" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1356" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1357" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1357" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1357" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1357" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1357">
+        <v>2790</v>
+      </c>
+      <c r="F1357" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1357" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1358" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1358" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1358" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1358" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1358">
+        <v>8895</v>
+      </c>
+      <c r="F1358" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1358" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1359" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1359" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1359" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1359" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1359">
+        <v>1841</v>
+      </c>
+      <c r="F1359" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1359" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1360" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1360" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1360" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1360" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1360">
+        <v>112</v>
+      </c>
+      <c r="F1360" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1360" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1361" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1361" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1361" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1361" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1361">
+        <v>3265.4</v>
+      </c>
+      <c r="F1361" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1361" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1362" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1362" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1362" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1362" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1362" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1362" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1363" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1363" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1363" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1363" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1363">
+        <v>6329.6</v>
+      </c>
+      <c r="F1363" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1363" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1364" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1364" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1364" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1364" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1364">
+        <v>8820</v>
+      </c>
+      <c r="F1364" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1364" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1365" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1365" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1365" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1365" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1365" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1365" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1366" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1366" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1366" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1366" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1366" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1366" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1367" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1367" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1367" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1367" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="F1367" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1367" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1368" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1368" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1368" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1368" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1368">
+        <v>2488.1999999999998</v>
+      </c>
+      <c r="F1368" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1368" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1369" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1369" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1369" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1369" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1369">
+        <v>3836.6</v>
+      </c>
+      <c r="F1369" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1369" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1370" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1370" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1370" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1370" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1370">
+        <v>8612</v>
+      </c>
+      <c r="F1370" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1370" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1371" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1371" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1371" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1371" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>Friday</v>
+      </c>
+      <c r="E1371">
+        <v>3022</v>
+      </c>
+      <c r="F1371" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1371" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1372" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1372" s="2">
+        <v>46052</v>
+      </c>
+      <c r="C1372" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1372" s="24" t="str">
+        <f t="shared" ref="D1372" si="38">TEXT(B1372, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E1372">
+        <v>422</v>
+      </c>
+      <c r="F1372" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1372" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G789" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:G1211" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
